--- a/biology/Zoologie/Chirocephalus_spinicaudatus/Chirocephalus_spinicaudatus.xlsx
+++ b/biology/Zoologie/Chirocephalus_spinicaudatus/Chirocephalus_spinicaudatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Chirocephalus spinicaudatus est une espèce de crustacés branchiopodes endémique française. Elle a été décrite en 1886 par Simon en région parisienne : à Paris et dans le secteur d’Ivry[2]. L’urbanisation et les modifications de ces milieux ont conduit à sa disparition mais elle a été redécouverte dans l'Aube[3] et le Doubs[4].
-Elle figure parmi les espèces dont la conservation devrait être la plus prioritaire en France[5] et elle est considérée comme en
-danger critique d’extinction (CR) par l’UICN de par son aire de répartition extrêmement restreinte, l’isolement de ses populations et le déclin observé de l’une d’entre elles[6].
+Chirocephalus spinicaudatus est une espèce de crustacés branchiopodes endémique française. Elle a été décrite en 1886 par Simon en région parisienne : à Paris et dans le secteur d’Ivry. L’urbanisation et les modifications de ces milieux ont conduit à sa disparition mais elle a été redécouverte dans l'Aube et le Doubs.
+Elle figure parmi les espèces dont la conservation devrait être la plus prioritaire en France et elle est considérée comme en
+danger critique d’extinction (CR) par l’UICN de par son aire de répartition extrêmement restreinte, l’isolement de ses populations et le déclin observé de l’une d’entre elles.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chirocephalus spinicaudatus mesure entre 14 et 22 mm[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chirocephalus spinicaudatus mesure entre 14 et 22 mm.
 </t>
         </is>
       </c>
